--- a/macrostat.xlsx
+++ b/macrostat.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bbuser\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\OAFILE06\RSKTAM$\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="14970"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="34725" windowHeight="17700"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,8 @@
     <definedName name="SpreadsheetBuilder_3" hidden="1">Sheet1!#REF!</definedName>
     <definedName name="SpreadsheetBuilder_4" hidden="1">Sheet1!#REF!</definedName>
     <definedName name="SpreadsheetBuilder_5" hidden="1">Sheet1!#REF!</definedName>
-    <definedName name="SpreadsheetBuilder_6" hidden="1">Sheet1!$E$1:$H$7</definedName>
+    <definedName name="SpreadsheetBuilder_6" hidden="1">Sheet1!$E$1:$G$7</definedName>
+    <definedName name="SpreadsheetBuilder_7" hidden="1">Sheet1!$I$1:$J$7</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="8">
   <si>
     <t>Start Date</t>
   </si>
@@ -55,16 +56,13 @@
     <t>M2 Index</t>
   </si>
   <si>
-    <t>CPI CHNG Index</t>
+    <t>GDPCPCEY Index</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
-  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -94,10 +92,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -119,64 +118,8 @@
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
     <main first="bofaddin.rtdserver">
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|10742267169423396864</stp>
-        <tr r="E7" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|13437676942417096555</stp>
-        <tr r="H7" s="1"/>
-      </tp>
-    </main>
-    <main first="bofaddin.rtdserver">
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|6566956251511548511</stp>
-        <tr r="G7" s="1"/>
-      </tp>
-    </main>
-    <main first="bloomberg.rtd">
-      <tp t="s">
-        <v>Last Price</v>
-        <stp/>
-        <stp>##V3_BFIELDINFOV12</stp>
-        <stp>[Book1]Sheet1!R5C8</stp>
-        <stp>PX_LAST</stp>
-        <tr r="H5" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>Last Price</v>
-        <stp/>
-        <stp>##V3_BFIELDINFOV12</stp>
-        <stp>[Book1]Sheet1!R5C6</stp>
-        <stp>PX_LAST</stp>
-        <tr r="F5" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>Last Price</v>
-        <stp/>
-        <stp>##V3_BFIELDINFOV12</stp>
-        <stp>[Book1]Sheet1!R5C7</stp>
-        <stp>PX_LAST</stp>
-        <tr r="G5" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>Last Price</v>
-        <stp/>
-        <stp>##V3_BFIELDINFOV12</stp>
-        <stp>[Book1]Sheet1!R5C2</stp>
-        <stp>PX_LAST</stp>
-        <tr r="B5" s="1"/>
-      </tp>
-    </main>
-    <main first="bofaddin.rtdserver">
-      <tp t="s">
-        <v>#N/A N/A</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDH|6668987863968894199</stp>
         <tr r="A7" s="1"/>
@@ -449,10 +392,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H89"/>
+  <dimension ref="A1:J89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -460,9 +403,10 @@
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -472,51 +416,57 @@
       <c r="E1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="1">
+      <c r="I1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="2">
         <v>38322</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="E2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>2</v>
       </c>
       <c r="F4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" t="s">
         <v>7</v>
       </c>
-      <c r="G4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B5" t="str">
-        <f>_xll.BFieldInfo(B$6)</f>
-        <v>Last Price</v>
-      </c>
-      <c r="F5" t="str">
-        <f>_xll.BFieldInfo(F$6)</f>
-        <v>Last Price</v>
-      </c>
-      <c r="G5" t="str">
-        <f>_xll.BFieldInfo(G$6)</f>
-        <v>Last Price</v>
-      </c>
-      <c r="H5" t="str">
-        <f>_xll.BFieldInfo(H$6)</f>
-        <v>Last Price</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B5" t="e">
+        <f ca="1">_xll.BFieldInfo(B$6)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F5" t="e">
+        <f ca="1">_xll.BFieldInfo(F$6)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G5" t="e">
+        <f ca="1">_xll.BFieldInfo(G$6)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J5" t="e">
+        <f ca="1">_xll.BFieldInfo(J$6)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -532,11 +482,14 @@
       <c r="G6" t="s">
         <v>4</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
+        <v>3</v>
+      </c>
+      <c r="J6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <f>_xll.BDH(B$4,B$6,$B1,$B2,"Dir=V","Per=Q","Dts=S","cols=2;rows=83")</f>
         <v>38352</v>
@@ -544,23 +497,27 @@
       <c r="B7">
         <v>15670.9</v>
       </c>
-      <c r="E7" s="2">
-        <f>_xll.BDH(F$4,F$6,$F1,$F2,"Dir=V","Per=Q","Days=A","Dts=S","cols=2;rows=83")</f>
-        <v>38352</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <f>_xll.BDH(G$4,G$6,$F1,$F2,"Dir=V","Per=Q","Days=A","Dts=H","cols=1;rows=83")</f>
-        <v>1376</v>
-      </c>
-      <c r="H7">
-        <f>_xll.BDH(H$4,H$6,$F1,$F2,"Dir=V","Per=Q","Days=A","Dts=H","cols=1;rows=83")</f>
-        <v>6424.7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E7" s="2" t="e">
+        <f>_xll.BDH(#REF!,#REF!,#REF!,#REF!,"Dir=V","Per=Q","Days=A","Dts=S","cols=2;rows=83")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F7" t="e">
+        <f>_xll.BDH(F$4,F$6,#REF!,#REF!,"Dir=V","Per=Q","Days=A","Dts=H","cols=1;rows=83")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G7" t="e">
+        <f>_xll.BDH(G$4,G$6,#REF!,#REF!,"Dir=V","Per=Q","Days=A","Dts=H","cols=1;rows=83")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I7" s="3" t="e">
+        <f ca="1">_xll.BDH(J$4,J$6,$J1,$J2,"Dir=V","Dts=S","cols=2;rows=83")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J7">
+        <v>2.04</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>38442</v>
       </c>
@@ -571,16 +528,19 @@
         <v>38442</v>
       </c>
       <c r="F8">
-        <v>0.4</v>
+        <v>1370.9</v>
       </c>
       <c r="G8">
-        <v>1370.9</v>
-      </c>
-      <c r="H8">
         <v>6448.4</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I8" s="3">
+        <v>38442</v>
+      </c>
+      <c r="J8">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>38533</v>
       </c>
@@ -591,16 +551,19 @@
         <v>38533</v>
       </c>
       <c r="F9">
-        <v>0.1</v>
+        <v>1380.1</v>
       </c>
       <c r="G9">
-        <v>1380.1</v>
-      </c>
-      <c r="H9">
         <v>6511.8</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I9" s="3">
+        <v>38533</v>
+      </c>
+      <c r="J9">
+        <v>2.12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>38625</v>
       </c>
@@ -611,16 +574,19 @@
         <v>38625</v>
       </c>
       <c r="F10">
-        <v>1.4</v>
+        <v>1378.6</v>
       </c>
       <c r="G10">
-        <v>1378.6</v>
-      </c>
-      <c r="H10">
         <v>6610.3</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I10" s="3">
+        <v>38625</v>
+      </c>
+      <c r="J10">
+        <v>2.16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>38717</v>
       </c>
@@ -631,16 +597,19 @@
         <v>38716</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>1374.3</v>
       </c>
       <c r="G11">
-        <v>1374.3</v>
-      </c>
-      <c r="H11">
         <v>6688</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I11" s="3">
+        <v>38717</v>
+      </c>
+      <c r="J11">
+        <v>2.2799999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>38807</v>
       </c>
@@ -651,16 +620,19 @@
         <v>38807</v>
       </c>
       <c r="F12">
-        <v>0.2</v>
+        <v>1383.2</v>
       </c>
       <c r="G12">
-        <v>1383.2</v>
-      </c>
-      <c r="H12">
         <v>6769.5</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I12" s="3">
+        <v>38807</v>
+      </c>
+      <c r="J12">
+        <v>2.15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>38898</v>
       </c>
@@ -671,16 +643,19 @@
         <v>38898</v>
       </c>
       <c r="F13">
-        <v>0.2</v>
+        <v>1375.4</v>
       </c>
       <c r="G13">
-        <v>1375.4</v>
-      </c>
-      <c r="H13">
         <v>6852.1</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I13" s="3">
+        <v>38898</v>
+      </c>
+      <c r="J13">
+        <v>2.46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>38990</v>
       </c>
@@ -691,16 +666,19 @@
         <v>38989</v>
       </c>
       <c r="F14">
-        <v>-0.5</v>
+        <v>1364.4</v>
       </c>
       <c r="G14">
-        <v>1364.4</v>
-      </c>
-      <c r="H14">
         <v>6952.6</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I14" s="3">
+        <v>38990</v>
+      </c>
+      <c r="J14">
+        <v>2.61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>39082</v>
       </c>
@@ -711,16 +689,19 @@
         <v>39080</v>
       </c>
       <c r="F15">
-        <v>0.5</v>
+        <v>1366.6</v>
       </c>
       <c r="G15">
-        <v>1366.6</v>
-      </c>
-      <c r="H15">
         <v>7080.4</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I15" s="3">
+        <v>39082</v>
+      </c>
+      <c r="J15">
+        <v>2.37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>39172</v>
       </c>
@@ -731,16 +712,19 @@
         <v>39171</v>
       </c>
       <c r="F16">
-        <v>0.5</v>
+        <v>1366.5</v>
       </c>
       <c r="G16">
-        <v>1366.5</v>
-      </c>
-      <c r="H16">
         <v>7168.5</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I16" s="3">
+        <v>39172</v>
+      </c>
+      <c r="J16">
+        <v>2.48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>39263</v>
       </c>
@@ -751,16 +735,19 @@
         <v>39262</v>
       </c>
       <c r="F17">
-        <v>0.2</v>
+        <v>1368.2</v>
       </c>
       <c r="G17">
-        <v>1368.2</v>
-      </c>
-      <c r="H17">
         <v>7288.1</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I17" s="3">
+        <v>39263</v>
+      </c>
+      <c r="J17">
+        <v>2.09</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>39355</v>
       </c>
@@ -771,16 +758,19 @@
         <v>39353</v>
       </c>
       <c r="F18">
-        <v>0.4</v>
+        <v>1375.7</v>
       </c>
       <c r="G18">
-        <v>1375.7</v>
-      </c>
-      <c r="H18">
         <v>7413.3</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I18" s="3">
+        <v>39355</v>
+      </c>
+      <c r="J18">
+        <v>2.04</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>39447</v>
       </c>
@@ -791,16 +781,19 @@
         <v>39447</v>
       </c>
       <c r="F19">
-        <v>0.3</v>
+        <v>1373.4</v>
       </c>
       <c r="G19">
-        <v>1373.4</v>
-      </c>
-      <c r="H19">
         <v>7484.2</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I19" s="3">
+        <v>39447</v>
+      </c>
+      <c r="J19">
+        <v>2.31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>39538</v>
       </c>
@@ -811,16 +804,19 @@
         <v>39538</v>
       </c>
       <c r="F20">
-        <v>0.4</v>
+        <v>1388.7</v>
       </c>
       <c r="G20">
-        <v>1388.7</v>
-      </c>
-      <c r="H20">
         <v>7670.3</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I20" s="3">
+        <v>39538</v>
+      </c>
+      <c r="J20">
+        <v>2.14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>39629</v>
       </c>
@@ -831,16 +827,19 @@
         <v>39629</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>1404.6</v>
       </c>
       <c r="G21">
-        <v>1404.6</v>
-      </c>
-      <c r="H21">
         <v>7744.2</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I21" s="3">
+        <v>39629</v>
+      </c>
+      <c r="J21">
+        <v>2.15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>39721</v>
       </c>
@@ -851,16 +850,19 @@
         <v>39721</v>
       </c>
       <c r="F22">
-        <v>0.1</v>
+        <v>1462</v>
       </c>
       <c r="G22">
-        <v>1462</v>
-      </c>
-      <c r="H22">
         <v>7872.7</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I22" s="3">
+        <v>39721</v>
+      </c>
+      <c r="J22">
+        <v>2.17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>39813</v>
       </c>
@@ -871,16 +873,19 @@
         <v>39813</v>
       </c>
       <c r="F23">
-        <v>-0.8</v>
+        <v>1601.7</v>
       </c>
       <c r="G23">
-        <v>1601.7</v>
-      </c>
-      <c r="H23">
         <v>8205</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I23" s="3">
+        <v>39813</v>
+      </c>
+      <c r="J23">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>39903</v>
       </c>
@@ -891,16 +896,19 @@
         <v>39903</v>
       </c>
       <c r="F24">
-        <v>-0.1</v>
+        <v>1578.9</v>
       </c>
       <c r="G24">
-        <v>1578.9</v>
-      </c>
-      <c r="H24">
         <v>8386.7000000000007</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I24" s="3">
+        <v>39903</v>
+      </c>
+      <c r="J24">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>39994</v>
       </c>
@@ -911,16 +919,19 @@
         <v>39994</v>
       </c>
       <c r="F25">
-        <v>0.8</v>
+        <v>1658.8</v>
       </c>
       <c r="G25">
-        <v>1658.8</v>
-      </c>
-      <c r="H25">
         <v>8459.5</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I25" s="3">
+        <v>39994</v>
+      </c>
+      <c r="J25">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>40086</v>
       </c>
@@ -931,16 +942,19 @@
         <v>40086</v>
       </c>
       <c r="F26">
-        <v>0.2</v>
+        <v>1664.9</v>
       </c>
       <c r="G26">
-        <v>1664.9</v>
-      </c>
-      <c r="H26">
         <v>8461.7999999999993</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I26" s="3">
+        <v>40086</v>
+      </c>
+      <c r="J26">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>40178</v>
       </c>
@@ -951,16 +965,19 @@
         <v>40178</v>
       </c>
       <c r="F27">
-        <v>0.1</v>
+        <v>1692.8</v>
       </c>
       <c r="G27">
-        <v>1692.8</v>
-      </c>
-      <c r="H27">
         <v>8512.5</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I27" s="3">
+        <v>40178</v>
+      </c>
+      <c r="J27">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>40268</v>
       </c>
@@ -971,16 +988,19 @@
         <v>40268</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>1711.9</v>
       </c>
       <c r="G28">
-        <v>1711.9</v>
-      </c>
-      <c r="H28">
         <v>8523.7000000000007</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I28" s="3">
+        <v>40268</v>
+      </c>
+      <c r="J28">
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>40359</v>
       </c>
@@ -991,16 +1011,19 @@
         <v>40359</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>1731.6</v>
       </c>
       <c r="G29">
-        <v>1731.6</v>
-      </c>
-      <c r="H29">
         <v>8628.4</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I29" s="3">
+        <v>40359</v>
+      </c>
+      <c r="J29">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>40451</v>
       </c>
@@ -1011,16 +1034,19 @@
         <v>40451</v>
       </c>
       <c r="F30">
-        <v>0.2</v>
+        <v>1766.2</v>
       </c>
       <c r="G30">
-        <v>1766.2</v>
-      </c>
-      <c r="H30">
         <v>8718.9</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I30" s="3">
+        <v>40451</v>
+      </c>
+      <c r="J30">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>40543</v>
       </c>
@@ -1031,16 +1057,19 @@
         <v>40543</v>
       </c>
       <c r="F31">
-        <v>0.4</v>
+        <v>1836.7</v>
       </c>
       <c r="G31">
-        <v>1836.7</v>
-      </c>
-      <c r="H31">
         <v>8822.9</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I31" s="3">
+        <v>40543</v>
+      </c>
+      <c r="J31">
+        <v>1.0900000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>40633</v>
       </c>
@@ -1051,16 +1080,19 @@
         <v>40633</v>
       </c>
       <c r="F32">
-        <v>0.5</v>
+        <v>1896.5</v>
       </c>
       <c r="G32">
-        <v>1896.5</v>
-      </c>
-      <c r="H32">
         <v>8967</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I32" s="3">
+        <v>40633</v>
+      </c>
+      <c r="J32">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>40724</v>
       </c>
@@ -1071,16 +1103,19 @@
         <v>40724</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>1963.4</v>
       </c>
       <c r="G33">
-        <v>1963.4</v>
-      </c>
-      <c r="H33">
         <v>9176.7000000000007</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I33" s="3">
+        <v>40724</v>
+      </c>
+      <c r="J33">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>40816</v>
       </c>
@@ -1091,16 +1126,19 @@
         <v>40816</v>
       </c>
       <c r="F34">
-        <v>0.2</v>
+        <v>2120</v>
       </c>
       <c r="G34">
-        <v>2120</v>
-      </c>
-      <c r="H34">
         <v>9545.2999999999993</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I34" s="3">
+        <v>40816</v>
+      </c>
+      <c r="J34">
+        <v>1.81</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>40908</v>
       </c>
@@ -1111,16 +1149,19 @@
         <v>40907</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>2165.6999999999998</v>
       </c>
       <c r="G35">
-        <v>2165.6999999999998</v>
-      </c>
-      <c r="H35">
         <v>9677.4</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I35" s="3">
+        <v>40908</v>
+      </c>
+      <c r="J35">
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>40999</v>
       </c>
@@ -1131,16 +1172,19 @@
         <v>40998</v>
       </c>
       <c r="F36">
-        <v>0.2</v>
+        <v>2227.8000000000002</v>
       </c>
       <c r="G36">
-        <v>2227.8000000000002</v>
-      </c>
-      <c r="H36">
         <v>9846.2000000000007</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I36" s="3">
+        <v>40999</v>
+      </c>
+      <c r="J36">
+        <v>2.04</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>41090</v>
       </c>
@@ -1151,16 +1195,19 @@
         <v>41089</v>
       </c>
       <c r="F37">
-        <v>-0.1</v>
+        <v>2275.3000000000002</v>
       </c>
       <c r="G37">
-        <v>2275.3000000000002</v>
-      </c>
-      <c r="H37">
         <v>10013</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I37" s="3">
+        <v>41090</v>
+      </c>
+      <c r="J37">
+        <v>1.87</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>41182</v>
       </c>
@@ -1171,16 +1218,19 @@
         <v>41180</v>
       </c>
       <c r="F38">
-        <v>0.5</v>
+        <v>2386.6</v>
       </c>
       <c r="G38">
-        <v>2386.6</v>
-      </c>
-      <c r="H38">
         <v>10216.6</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I38" s="3">
+        <v>41182</v>
+      </c>
+      <c r="J38">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>41274</v>
       </c>
@@ -1191,16 +1241,19 @@
         <v>41274</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>2460.6999999999998</v>
       </c>
       <c r="G39">
-        <v>2460.6999999999998</v>
-      </c>
-      <c r="H39">
         <v>10474.4</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I39" s="3">
+        <v>41274</v>
+      </c>
+      <c r="J39">
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>41364</v>
       </c>
@@ -1211,16 +1264,19 @@
         <v>41362</v>
       </c>
       <c r="F40">
-        <v>-0.3</v>
+        <v>2476.3000000000002</v>
       </c>
       <c r="G40">
-        <v>2476.3000000000002</v>
-      </c>
-      <c r="H40">
         <v>10572.9</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I40" s="3">
+        <v>41364</v>
+      </c>
+      <c r="J40">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>41455</v>
       </c>
@@ -1231,16 +1287,19 @@
         <v>41453</v>
       </c>
       <c r="F41">
-        <v>0.2</v>
+        <v>2521</v>
       </c>
       <c r="G41">
-        <v>2521</v>
-      </c>
-      <c r="H41">
         <v>10692.3</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I41" s="3">
+        <v>41455</v>
+      </c>
+      <c r="J41">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>41547</v>
       </c>
@@ -1251,16 +1310,19 @@
         <v>41547</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <v>2585.5</v>
       </c>
       <c r="G42">
-        <v>2585.5</v>
-      </c>
-      <c r="H42">
         <v>10850</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I42" s="3">
+        <v>41547</v>
+      </c>
+      <c r="J42">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>41639</v>
       </c>
@@ -1271,16 +1333,19 @@
         <v>41639</v>
       </c>
       <c r="F43">
-        <v>0.3</v>
+        <v>2674.2</v>
       </c>
       <c r="G43">
-        <v>2674.2</v>
-      </c>
-      <c r="H43">
         <v>11047.8</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I43" s="3">
+        <v>41639</v>
+      </c>
+      <c r="J43">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>41729</v>
       </c>
@@ -1291,16 +1356,19 @@
         <v>41729</v>
       </c>
       <c r="F44">
-        <v>0.2</v>
+        <v>2749.3</v>
       </c>
       <c r="G44">
-        <v>2749.3</v>
-      </c>
-      <c r="H44">
         <v>11219.1</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I44" s="3">
+        <v>41729</v>
+      </c>
+      <c r="J44">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>41820</v>
       </c>
@@ -1311,16 +1379,19 @@
         <v>41820</v>
       </c>
       <c r="F45">
-        <v>0.1</v>
+        <v>2817.2</v>
       </c>
       <c r="G45">
-        <v>2817.2</v>
-      </c>
-      <c r="H45">
         <v>11383.7</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I45" s="3">
+        <v>41820</v>
+      </c>
+      <c r="J45">
+        <v>1.59</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>41912</v>
       </c>
@@ -1331,16 +1402,19 @@
         <v>41912</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <v>2861.2</v>
       </c>
       <c r="G46">
-        <v>2861.2</v>
-      </c>
-      <c r="H46">
         <v>11503.7</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I46" s="3">
+        <v>41912</v>
+      </c>
+      <c r="J46">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>42004</v>
       </c>
@@ -1351,16 +1425,19 @@
         <v>42004</v>
       </c>
       <c r="F47">
-        <v>-0.3</v>
+        <v>2955.8</v>
       </c>
       <c r="G47">
-        <v>2955.8</v>
-      </c>
-      <c r="H47">
         <v>11701.9</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I47" s="3">
+        <v>42004</v>
+      </c>
+      <c r="J47">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>42094</v>
       </c>
@@ -1371,16 +1448,19 @@
         <v>42094</v>
       </c>
       <c r="F48">
-        <v>0.3</v>
+        <v>3001.2</v>
       </c>
       <c r="G48">
-        <v>3001.2</v>
-      </c>
-      <c r="H48">
         <v>11903.7</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I48" s="3">
+        <v>42094</v>
+      </c>
+      <c r="J48">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>42185</v>
       </c>
@@ -1391,16 +1471,19 @@
         <v>42185</v>
       </c>
       <c r="F49">
-        <v>0.3</v>
+        <v>3014.8</v>
       </c>
       <c r="G49">
-        <v>3014.8</v>
-      </c>
-      <c r="H49">
         <v>12005.6</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I49" s="3">
+        <v>42185</v>
+      </c>
+      <c r="J49">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>42277</v>
       </c>
@@ -1411,16 +1494,19 @@
         <v>42277</v>
       </c>
       <c r="F50">
-        <v>-0.2</v>
+        <v>3038</v>
       </c>
       <c r="G50">
-        <v>3038</v>
-      </c>
-      <c r="H50">
         <v>12154.8</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I50" s="3">
+        <v>42277</v>
+      </c>
+      <c r="J50">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>42369</v>
       </c>
@@ -1431,16 +1517,19 @@
         <v>42369</v>
       </c>
       <c r="F51">
-        <v>-0.1</v>
+        <v>3106.3</v>
       </c>
       <c r="G51">
-        <v>3106.3</v>
-      </c>
-      <c r="H51">
         <v>12368.7</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I51" s="3">
+        <v>42369</v>
+      </c>
+      <c r="J51">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>42460</v>
       </c>
@@ -1451,16 +1540,19 @@
         <v>42460</v>
       </c>
       <c r="F52">
-        <v>0.3</v>
+        <v>3157.8</v>
       </c>
       <c r="G52">
-        <v>3157.8</v>
-      </c>
-      <c r="H52">
         <v>12629</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I52" s="3">
+        <v>42460</v>
+      </c>
+      <c r="J52">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>42551</v>
       </c>
@@ -1471,16 +1563,19 @@
         <v>42551</v>
       </c>
       <c r="F53">
-        <v>0.3</v>
+        <v>3242.5</v>
       </c>
       <c r="G53">
-        <v>3242.5</v>
-      </c>
-      <c r="H53">
         <v>12835.4</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I53" s="3">
+        <v>42551</v>
+      </c>
+      <c r="J53">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>42643</v>
       </c>
@@ -1491,16 +1586,19 @@
         <v>42643</v>
       </c>
       <c r="F54">
-        <v>0.3</v>
+        <v>3319.6</v>
       </c>
       <c r="G54">
-        <v>3319.6</v>
-      </c>
-      <c r="H54">
         <v>13034.2</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I54" s="3">
+        <v>42643</v>
+      </c>
+      <c r="J54">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>42735</v>
       </c>
@@ -1511,16 +1609,19 @@
         <v>42734</v>
       </c>
       <c r="F55">
-        <v>0.3</v>
+        <v>3345.4</v>
       </c>
       <c r="G55">
-        <v>3345.4</v>
-      </c>
-      <c r="H55">
         <v>13226.1</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I55" s="3">
+        <v>42735</v>
+      </c>
+      <c r="J55">
+        <v>1.76</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>42825</v>
       </c>
@@ -1531,16 +1632,19 @@
         <v>42825</v>
       </c>
       <c r="F56">
-        <v>0</v>
+        <v>3455.8</v>
       </c>
       <c r="G56">
-        <v>3455.8</v>
-      </c>
-      <c r="H56">
         <v>13428.7</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I56" s="3">
+        <v>42825</v>
+      </c>
+      <c r="J56">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>42916</v>
       </c>
@@ -1551,16 +1655,19 @@
         <v>42916</v>
       </c>
       <c r="F57">
-        <v>0.1</v>
+        <v>3525.5</v>
       </c>
       <c r="G57">
-        <v>3525.5</v>
-      </c>
-      <c r="H57">
         <v>13558.5</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I57" s="3">
+        <v>42916</v>
+      </c>
+      <c r="J57">
+        <v>1.59</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>43008</v>
       </c>
@@ -1571,16 +1678,19 @@
         <v>43007</v>
       </c>
       <c r="F58">
-        <v>0.5</v>
+        <v>3563.6</v>
       </c>
       <c r="G58">
-        <v>3563.6</v>
-      </c>
-      <c r="H58">
         <v>13723</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I58" s="3">
+        <v>43008</v>
+      </c>
+      <c r="J58">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>43100</v>
       </c>
@@ -1591,16 +1701,19 @@
         <v>43098</v>
       </c>
       <c r="F59">
-        <v>0.2</v>
+        <v>3612.6</v>
       </c>
       <c r="G59">
-        <v>3612.6</v>
-      </c>
-      <c r="H59">
         <v>13873.8</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I59" s="3">
+        <v>43100</v>
+      </c>
+      <c r="J59">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>43190</v>
       </c>
@@ -1611,16 +1724,19 @@
         <v>43189</v>
       </c>
       <c r="F60">
-        <v>0</v>
+        <v>3667.4</v>
       </c>
       <c r="G60">
-        <v>3667.4</v>
-      </c>
-      <c r="H60">
         <v>13976</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I60" s="3">
+        <v>43190</v>
+      </c>
+      <c r="J60">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>43281</v>
       </c>
@@ -1631,16 +1747,19 @@
         <v>43280</v>
       </c>
       <c r="F61">
-        <v>0.1</v>
+        <v>3655.9</v>
       </c>
       <c r="G61">
-        <v>3655.9</v>
-      </c>
-      <c r="H61">
         <v>14109.9</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I61" s="3">
+        <v>43281</v>
+      </c>
+      <c r="J61">
+        <v>1.93</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>43373</v>
       </c>
@@ -1651,16 +1770,19 @@
         <v>43371</v>
       </c>
       <c r="F62">
-        <v>0.2</v>
+        <v>3694.8</v>
       </c>
       <c r="G62">
-        <v>3694.8</v>
-      </c>
-      <c r="H62">
         <v>14229.3</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I62" s="3">
+        <v>43373</v>
+      </c>
+      <c r="J62">
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>43465</v>
       </c>
@@ -1671,16 +1793,19 @@
         <v>43465</v>
       </c>
       <c r="F63">
-        <v>0.1</v>
+        <v>3761</v>
       </c>
       <c r="G63">
-        <v>3761</v>
-      </c>
-      <c r="H63">
         <v>14382.6</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I63" s="3">
+        <v>43465</v>
+      </c>
+      <c r="J63">
+        <v>1.97</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>43555</v>
       </c>
@@ -1691,16 +1816,19 @@
         <v>43553</v>
       </c>
       <c r="F64">
-        <v>0.4</v>
+        <v>3738.4</v>
       </c>
       <c r="G64">
-        <v>3738.4</v>
-      </c>
-      <c r="H64">
         <v>14526.2</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I64" s="3">
+        <v>43555</v>
+      </c>
+      <c r="J64">
+        <v>1.74</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>43646</v>
       </c>
@@ -1711,16 +1839,19 @@
         <v>43644</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>3832.1</v>
       </c>
       <c r="G65">
-        <v>3832.1</v>
-      </c>
-      <c r="H65">
         <v>14771.4</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I65" s="3">
+        <v>43646</v>
+      </c>
+      <c r="J65">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>43738</v>
       </c>
@@ -1731,16 +1862,19 @@
         <v>43738</v>
       </c>
       <c r="F66">
-        <v>0.2</v>
+        <v>3894</v>
       </c>
       <c r="G66">
-        <v>3894</v>
-      </c>
-      <c r="H66">
         <v>15031.4</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I66" s="3">
+        <v>43738</v>
+      </c>
+      <c r="J66">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>43830</v>
       </c>
@@ -1751,16 +1885,19 @@
         <v>43830</v>
       </c>
       <c r="F67">
-        <v>0.3</v>
+        <v>4003.6</v>
       </c>
       <c r="G67">
-        <v>4003.6</v>
-      </c>
-      <c r="H67">
         <v>15348</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I67" s="3">
+        <v>43830</v>
+      </c>
+      <c r="J67">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>43921</v>
       </c>
@@ -1771,16 +1908,19 @@
         <v>43921</v>
       </c>
       <c r="F68">
-        <v>-0.5</v>
+        <v>4266</v>
       </c>
       <c r="G68">
-        <v>4266</v>
-      </c>
-      <c r="H68">
         <v>15993.8</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I68" s="3">
+        <v>43921</v>
+      </c>
+      <c r="J68">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>44012</v>
       </c>
@@ -1791,16 +1931,19 @@
         <v>44012</v>
       </c>
       <c r="F69">
-        <v>0.5</v>
+        <v>16554.5</v>
       </c>
       <c r="G69">
-        <v>16554.5</v>
-      </c>
-      <c r="H69">
         <v>18141.099999999999</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I69" s="3">
+        <v>44012</v>
+      </c>
+      <c r="J69">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>44104</v>
       </c>
@@ -1811,16 +1954,19 @@
         <v>44104</v>
       </c>
       <c r="F70">
-        <v>0.3</v>
+        <v>17159.2</v>
       </c>
       <c r="G70">
-        <v>17159.2</v>
-      </c>
-      <c r="H70">
         <v>18596.599999999999</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I70" s="3">
+        <v>44104</v>
+      </c>
+      <c r="J70">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>44196</v>
       </c>
@@ -1831,16 +1977,19 @@
         <v>44196</v>
       </c>
       <c r="F71">
-        <v>0.4</v>
+        <v>17827.900000000001</v>
       </c>
       <c r="G71">
-        <v>17827.900000000001</v>
-      </c>
-      <c r="H71">
         <v>19133.2</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I71" s="3">
+        <v>44196</v>
+      </c>
+      <c r="J71">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>44286</v>
       </c>
@@ -1851,16 +2000,19 @@
         <v>44286</v>
       </c>
       <c r="F72">
-        <v>0.5</v>
+        <v>18607.900000000001</v>
       </c>
       <c r="G72">
-        <v>18607.900000000001</v>
-      </c>
-      <c r="H72">
         <v>19823.400000000001</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I72" s="3">
+        <v>44286</v>
+      </c>
+      <c r="J72">
+        <v>1.86</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>44377</v>
       </c>
@@ -1871,16 +2023,19 @@
         <v>44377</v>
       </c>
       <c r="F73">
-        <v>0.9</v>
+        <v>19318.5</v>
       </c>
       <c r="G73">
-        <v>19318.5</v>
-      </c>
-      <c r="H73">
         <v>20472.7</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I73" s="3">
+        <v>44377</v>
+      </c>
+      <c r="J73">
+        <v>3.54</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>44469</v>
       </c>
@@ -1891,16 +2046,19 @@
         <v>44469</v>
       </c>
       <c r="F74">
-        <v>0.4</v>
+        <v>19867.599999999999</v>
       </c>
       <c r="G74">
-        <v>19867.599999999999</v>
-      </c>
-      <c r="H74">
         <v>20979</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I74" s="3">
+        <v>44469</v>
+      </c>
+      <c r="J74">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>44561</v>
       </c>
@@ -1911,16 +2069,19 @@
         <v>44561</v>
       </c>
       <c r="F75">
-        <v>0.7</v>
+        <v>20398.8</v>
       </c>
       <c r="G75">
-        <v>20398.8</v>
-      </c>
-      <c r="H75">
         <v>21471.1</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I75" s="3">
+        <v>44561</v>
+      </c>
+      <c r="J75">
+        <v>4.88</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>44651</v>
       </c>
@@ -1931,16 +2092,19 @@
         <v>44651</v>
       </c>
       <c r="F76">
-        <v>1</v>
+        <v>20684.400000000001</v>
       </c>
       <c r="G76">
-        <v>20684.400000000001</v>
-      </c>
-      <c r="H76">
         <v>21721.3</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I76" s="3">
+        <v>44651</v>
+      </c>
+      <c r="J76">
+        <v>5.56</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>44742</v>
       </c>
@@ -1951,16 +2115,19 @@
         <v>44742</v>
       </c>
       <c r="F77">
-        <v>1.3</v>
+        <v>20593</v>
       </c>
       <c r="G77">
-        <v>20593</v>
-      </c>
-      <c r="H77">
         <v>21642.799999999999</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I77" s="3">
+        <v>44742</v>
+      </c>
+      <c r="J77">
+        <v>5.28</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>44834</v>
       </c>
@@ -1971,16 +2138,19 @@
         <v>44834</v>
       </c>
       <c r="F78">
-        <v>0.4</v>
+        <v>20281.400000000001</v>
       </c>
       <c r="G78">
-        <v>20281.400000000001</v>
-      </c>
-      <c r="H78">
         <v>21521.1</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I78" s="3">
+        <v>44834</v>
+      </c>
+      <c r="J78">
+        <v>5.36</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>44926</v>
       </c>
@@ -1991,16 +2161,19 @@
         <v>44925</v>
       </c>
       <c r="F79">
-        <v>0</v>
+        <v>19671.2</v>
       </c>
       <c r="G79">
-        <v>19671.2</v>
-      </c>
-      <c r="H79">
         <v>21218.9</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I79" s="3">
+        <v>44926</v>
+      </c>
+      <c r="J79">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>45016</v>
       </c>
@@ -2011,16 +2184,19 @@
         <v>45016</v>
       </c>
       <c r="F80">
-        <v>0.1</v>
+        <v>18925.099999999999</v>
       </c>
       <c r="G80">
-        <v>18925.099999999999</v>
-      </c>
-      <c r="H80">
         <v>20876.099999999999</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I80" s="3">
+        <v>45016</v>
+      </c>
+      <c r="J80">
+        <v>4.8600000000000003</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>45107</v>
       </c>
@@ -2031,16 +2207,19 @@
         <v>45107</v>
       </c>
       <c r="F81">
-        <v>0.3</v>
+        <v>18434.900000000001</v>
       </c>
       <c r="G81">
-        <v>18434.900000000001</v>
-      </c>
-      <c r="H81">
         <v>20782.7</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I81" s="3">
+        <v>45107</v>
+      </c>
+      <c r="J81">
+        <v>4.62</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>45199</v>
       </c>
@@ -2051,16 +2230,19 @@
         <v>45198</v>
       </c>
       <c r="F82">
-        <v>0.4</v>
+        <v>18124.599999999999</v>
       </c>
       <c r="G82">
-        <v>18124.599999999999</v>
-      </c>
-      <c r="H82">
         <v>20720.400000000001</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I82" s="3">
+        <v>45199</v>
+      </c>
+      <c r="J82">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>45291</v>
       </c>
@@ -2071,16 +2253,19 @@
         <v>45289</v>
       </c>
       <c r="F83">
-        <v>0.2</v>
+        <v>17914.8</v>
       </c>
       <c r="G83">
-        <v>17914.8</v>
-      </c>
-      <c r="H83">
         <v>20701.2</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I83" s="3">
+        <v>45291</v>
+      </c>
+      <c r="J83">
+        <v>3.23</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>45382</v>
       </c>
@@ -2091,16 +2276,19 @@
         <v>45380</v>
       </c>
       <c r="F84">
-        <v>0.3</v>
+        <v>17980.599999999999</v>
       </c>
       <c r="G84">
-        <v>17980.599999999999</v>
-      </c>
-      <c r="H84">
         <v>20901.099999999999</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I84" s="3">
+        <v>45382</v>
+      </c>
+      <c r="J84">
+        <v>2.99</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>45473</v>
       </c>
@@ -2111,16 +2299,19 @@
         <v>45471</v>
       </c>
       <c r="F85">
-        <v>0</v>
+        <v>18039</v>
       </c>
       <c r="G85">
-        <v>18039</v>
-      </c>
-      <c r="H85">
         <v>21065.599999999999</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I85" s="3">
+        <v>45473</v>
+      </c>
+      <c r="J85">
+        <v>2.73</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>45565</v>
       </c>
@@ -2131,16 +2322,19 @@
         <v>45565</v>
       </c>
       <c r="F86">
-        <v>0.2</v>
+        <v>18157.099999999999</v>
       </c>
       <c r="G86">
-        <v>18157.099999999999</v>
-      </c>
-      <c r="H86">
         <v>21272.1</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I86" s="3">
+        <v>45565</v>
+      </c>
+      <c r="J86">
+        <v>2.69</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>45657</v>
       </c>
@@ -2151,16 +2345,19 @@
         <v>45657</v>
       </c>
       <c r="F87">
-        <v>0.4</v>
+        <v>18358.599999999999</v>
       </c>
       <c r="G87">
-        <v>18358.599999999999</v>
-      </c>
-      <c r="H87">
         <v>21441.8</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I87" s="3">
+        <v>45657</v>
+      </c>
+      <c r="J87">
+        <v>2.84</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>45747</v>
       </c>
@@ -2171,16 +2368,19 @@
         <v>45747</v>
       </c>
       <c r="F88">
-        <v>-0.1</v>
+        <v>18524.900000000001</v>
       </c>
       <c r="G88">
-        <v>18524.900000000001</v>
-      </c>
-      <c r="H88">
         <v>21656.9</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I88" s="3">
+        <v>45747</v>
+      </c>
+      <c r="J88">
+        <v>2.79</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>45838</v>
       </c>
@@ -2191,13 +2391,16 @@
         <v>45838</v>
       </c>
       <c r="F89">
-        <v>0.3</v>
+        <v>18803</v>
       </c>
       <c r="G89">
-        <v>18803</v>
-      </c>
-      <c r="H89">
         <v>22020.799999999999</v>
+      </c>
+      <c r="I89" s="3">
+        <v>45838</v>
+      </c>
+      <c r="J89">
+        <v>2.72</v>
       </c>
     </row>
   </sheetData>
